--- a/FigureData.xlsx
+++ b/FigureData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipiguo/Documents/Battery_Final/FigureData_Final copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUSTech Projects\Capacity estimation(SS)\郭南麟 复旦大学\Final_Revise\Figure data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A27B72-4BDF-6344-9976-E8E715FA8E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2DBFF-6CD3-4C1F-8DEF-459068F67362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="1260" windowWidth="19470" windowHeight="13970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,17 @@
     <sheet name="Figure4" sheetId="3" r:id="rId3"/>
     <sheet name="Figure5" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t>Num</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +243,10 @@
   </si>
   <si>
     <t>Figure 5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,27 +255,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0_ "/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,13 +306,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -327,7 +321,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,9 +605,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -626,7 +620,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +650,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -685,13 +679,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -699,7 +693,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -721,13 +715,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A172F5-F573-446C-9F15-DA30811FD3BB}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -741,7 +735,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -773,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -805,7 +799,7 @@
         <v>0.17906269647130599</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -837,7 +831,7 @@
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -869,7 +863,7 @@
         <v>7.4687991750313404E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -901,7 +895,7 @@
         <v>6.7788588463938607E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -933,7 +927,7 @@
         <v>7.1840896744600202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -965,7 +959,7 @@
         <v>6.6739157838838201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -979,7 +973,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>0.22952254799999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1069,7 @@
         <v>0.15429999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>0.103479986101364</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1133,7 @@
         <v>0.105753442604914</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1165,7 @@
         <v>0.12613271191164299</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>9.3678829460732901E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1211,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1281,7 +1275,7 @@
         <v>0.12229242999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1313,7 +1307,7 @@
         <v>9.39037682183331E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1345,7 +1339,7 @@
         <v>7.86065706528426E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1371,7 @@
         <v>7.7118386471818803E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>8.5245822117478498E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>7.2602821685621502E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1449,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1519,7 +1513,7 @@
         <v>0.16408061653908501</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>6.9249031235343095E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>6.6863561699816595E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1615,7 +1609,7 @@
         <v>7.2793381392271206E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1641,7 @@
         <v>7.3331207128484496E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1655,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1693,7 +1687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1719,7 @@
         <v>0.22304278113977399</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1757,7 +1751,7 @@
         <v>9.1334507669046799E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>8.8510695299467201E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>0.109871361315983</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>8.2950023682366703E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>32</v>
       </c>
@@ -1867,7 +1861,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1931,7 +1925,7 @@
         <v>0.11994368543810099</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1963,7 +1957,7 @@
         <v>7.8848402788461294E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>7.6248752647051707E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>8.3387205172614401E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -2077,13 +2071,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A4FC85-DB97-4B78-9350-CBB10F2A9A99}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2091,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>10021</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2187,7 @@
         <v>6.6739157838838201E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2225,7 +2219,7 @@
         <v>6.7788588463938496E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2251,7 @@
         <v>7.1840896744600202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2265,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2329,7 @@
         <v>10537</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2361,7 @@
         <v>9.3678829460732901E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2399,7 +2393,7 @@
         <v>0.105753442604914</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2425,7 @@
         <v>0.12613271191164299</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -2445,7 +2439,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2509,7 +2503,7 @@
         <v>15628</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>7.2602821685621502E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2567,7 @@
         <v>7.7118386471818803E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2599,7 @@
         <v>8.5245822117478498E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2615,7 +2609,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -2633,7 +2627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2650,7 @@
         <v>2268.6292648437502</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2673,7 @@
         <v>4685.0869382812507</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2696,7 @@
         <v>6947.1093468750005</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2710,7 +2704,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2718,7 +2712,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2726,7 +2720,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2751,13 +2745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C105DE72-4A37-4D9B-BEE6-71D212054AC7}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2776,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -2844,7 +2838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2903,7 @@
         <v>2.4648894636369696</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2974,7 +2968,7 @@
         <v>2.2807881387451272</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3033,10 @@
         <v>7.1648549523845668</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
       <c r="B6">
         <f t="shared" ref="B6:U6" si="0">SUM(B3:B5)</f>
         <v>1877.3522516811361</v>
@@ -3121,7 +3118,7 @@
         <v>11.910532554766665</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
@@ -3131,7 +3128,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -3147,68 +3144,80 @@
       <c r="F9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.115017309138941</v>
+        <v>0.12256107083093799</v>
       </c>
       <c r="C10">
-        <v>0.10321540960245899</v>
+        <v>0.10734973177674501</v>
       </c>
       <c r="D10">
-        <v>9.3581071982614603E-2</v>
+        <v>9.5572229177388002E-2</v>
       </c>
       <c r="E10">
-        <v>8.7333785146080006E-2</v>
+        <v>8.9934024815181701E-2</v>
       </c>
       <c r="F10">
-        <v>8.5038679778255896E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8.4093621657974404E-2</v>
+      </c>
+      <c r="G10">
+        <v>8.1530815906193599E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11">
-        <v>0.13086449367167299</v>
+        <v>0.13985988782887401</v>
       </c>
       <c r="C11">
-        <v>0.126161517288022</v>
+        <v>0.12779548133070501</v>
       </c>
       <c r="D11">
-        <v>0.121607430506439</v>
+        <v>0.114283374972607</v>
       </c>
       <c r="E11">
-        <v>0.119179228875831</v>
+        <v>0.10527492650638701</v>
       </c>
       <c r="F11">
-        <v>0.108828343909133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.107145948447554</v>
+      </c>
+      <c r="G11">
+        <v>0.102161091425746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12">
-        <v>9.8268036000000003E-2</v>
+        <v>0.103318140305883</v>
       </c>
       <c r="C12">
-        <v>8.7049906999999996E-2</v>
+        <v>9.4650031621494699E-2</v>
       </c>
       <c r="D12">
-        <v>8.5969836999999993E-2</v>
+        <v>9.2298964878218606E-2</v>
       </c>
       <c r="E12">
-        <v>8.3967952999999998E-2</v>
+        <v>8.9396996093591294E-2</v>
       </c>
       <c r="F12">
-        <v>7.9200039E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8.9336898210560206E-2</v>
+      </c>
+      <c r="G12">
+        <v>8.9349351499963495E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -3220,7 +3229,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>-0.33878406821243501</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3311,7 +3320,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3350,7 +3359,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3389,7 +3398,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -3428,7 +3437,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3467,7 +3476,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3506,7 +3515,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3545,7 +3554,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3597,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3727,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>8.5329477095275003E-9</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>-2.7364612703488E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3857,11 +3866,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -3886,7 +3895,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>34</v>
@@ -3949,7 +3958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -4014,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -4144,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>15</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>20</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>25</v>
       </c>
